--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99349.17589339965</v>
+        <v>113075.5340308178</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="C2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858479</v>
+        <v>80630.55414858478</v>
       </c>
       <c r="E2" t="n">
         <v>85740.41111239771</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>64504.44331886784</v>
       </c>
       <c r="E4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="F4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="G4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="H4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="I4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="J4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="K4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="L4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="M4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="N4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="O4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
       <c r="P4" t="n">
-        <v>38225.66400215985</v>
+        <v>38225.66400215984</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028304</v>
+        <v>-17501.48917028306</v>
       </c>
       <c r="E6" t="n">
-        <v>-89196.86499477045</v>
+        <v>-89196.86499477051</v>
       </c>
       <c r="F6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="G6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="H6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="I6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="J6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="K6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="L6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="M6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="N6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="O6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
       <c r="P6" t="n">
-        <v>43903.13500522953</v>
+        <v>43903.13500522954</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_12_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113075.5340308178</v>
+        <v>-12034.36476665884</v>
       </c>
     </row>
     <row r="7">
@@ -26316,10 +26316,10 @@
         <v>80630.55414858478</v>
       </c>
       <c r="C2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858478</v>
+        <v>80630.55414858479</v>
       </c>
       <c r="E2" t="n">
         <v>85740.41111239771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031782</v>
       </c>
       <c r="C6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="D6" t="n">
-        <v>-17501.48917028306</v>
+        <v>-32652.16314031781</v>
       </c>
       <c r="E6" t="n">
-        <v>-89196.86499477051</v>
+        <v>-104006.8818338844</v>
       </c>
       <c r="F6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="G6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="H6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="I6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="J6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="K6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="L6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="M6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="N6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="O6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
       <c r="P6" t="n">
-        <v>43903.13500522954</v>
+        <v>29093.11816611563</v>
       </c>
     </row>
   </sheetData>
